--- a/3 курс/6 семестр/Методы анализа данных/данные/pogoda.xlsx
+++ b/3 курс/6 семестр/Методы анализа данных/данные/pogoda.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Down\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RTU-MIREA\3 курс\6 семестр\Методы анализа данных\данные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5632539-BB92-4150-9003-2DF5CF4C68E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A4192C-82E0-4DC3-ADB5-95D47C71A44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38867F2D-A592-4FB6-AE64-68732094E00C}"/>
+    <workbookView xWindow="15504" yWindow="2652" windowWidth="30960" windowHeight="12120" xr2:uid="{38867F2D-A592-4FB6-AE64-68732094E00C}"/>
   </bookViews>
   <sheets>
     <sheet name="антактида" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="1027">
   <si>
     <t>Дата</t>
   </si>
@@ -3124,6 +3124,9 @@
   </si>
   <si>
     <t>15,08,2017</t>
+  </si>
+  <si>
+    <t>20,07,2017</t>
   </si>
 </sst>
 </file>
@@ -3892,7 +3895,7 @@
                   <c:v>19,07,2017</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>20,01,2017</c:v>
+                  <c:v>20,07,2017</c:v>
                 </c:pt>
                 <c:pt idx="200">
                   <c:v>21,07,2017</c:v>
@@ -10516,8 +10519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB04985A-BB24-487D-82FF-389029950A62}">
   <dimension ref="A1:H1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" zoomScale="91" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="91" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D203" sqref="D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15598,7 +15601,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>28</v>
+        <v>1026</v>
       </c>
       <c r="B202" s="1">
         <v>-51.65</v>
